--- a/数据整理/stocks/其他/AVGO-博通股份有限公司.xlsx
+++ b/数据整理/stocks/其他/AVGO-博通股份有限公司.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,13 +1281,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003721</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012868</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012869</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>19</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>8.23</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/AVGO-博通股份有限公司.xlsx
+++ b/数据整理/stocks/其他/AVGO-博通股份有限公司.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,775 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000055</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>75.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1153</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270042</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数QDII A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>75.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1153</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006479</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数（QDII）C人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>75.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1153</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006480</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>75.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1153</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>513100</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰纳斯达克100 (QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>41.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7158</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>040046</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数QDII - 人民币</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3907</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>040047</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数QDII - 美元现钞</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.85</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3907</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>040048</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数QDII - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3907</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160213</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰纳斯达克100指数(QDII)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>15.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2715</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000834</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成纳斯达克100指数 (QDII)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2377</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000043</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实美国成长股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>14.64</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2167</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000044</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>14.64</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2167</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>159941</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100ETFQDII</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11.87</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1911</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003722</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1560</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>161130</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1560</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003721</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达标普信息科技指数（QDII-LOF）美元</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1432</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>161128</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1432</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>513300</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏纳斯达克100ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1172</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005698</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华夏全球科技先锋混合QDII</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0318</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1590,64 +880,774 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1153</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.23</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003721</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161128</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/AVGO-博通股份有限公司.xlsx
+++ b/数据整理/stocks/其他/AVGO-博通股份有限公司.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>19</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>8.23</v>
       </c>
     </row>
@@ -515,6 +532,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012868</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币 C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003721</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012869</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元 C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -874,7 +1213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/AVGO-博通股份有限公司.xlsx
+++ b/数据整理/stocks/其他/AVGO-博通股份有限公司.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>19</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>8.23</v>
       </c>
     </row>
@@ -532,6 +549,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2839</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159632</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012868</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币 C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003721</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016532</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实纳斯达克100指数（QDII）A人民币</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016533</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016534</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实纳斯达克100指数（QDII）A美元现汇</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016535</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016055</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时纳斯达克100指数（QDII）A人民币</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016057</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016056</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时纳斯达克100指数（QDII）A美元现汇</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016058</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012869</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元 C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012870</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012871</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -853,7 +1876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1213,7 +2236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
